--- a/economía/tabla de costes e ingresos y beneficios.xlsx
+++ b/economía/tabla de costes e ingresos y beneficios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">Q</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">7666,66...€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) analiza los resultados indicando a partir de qué situación baja la productividad y razona la respuesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la productividad baja a partir de la segunda unidad, se sabe debido a que el rendimiento marginal va aumentando cuando debería de ir disminuyendo, de forma que cuanto más produzcas más barato vaya saliendo cada unidad.</t>
   </si>
 </sst>
 </file>
@@ -79,11 +85,12 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-C0A];[RED]\-#,##0.00\ [$€-C0A]"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,6 +106,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,20 +157,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,279 +198,287 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>3600</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>7600</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>3800</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>18000</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>10400</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>5200</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>1600</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>7400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>4900</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>8900</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>18100</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>1450</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="J4" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <v>7550</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>2500</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>36000</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>26000</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>6500</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>7200</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>11200</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>2240</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>33800</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>6760</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <v>7700</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="2"/>
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
